--- a/output_data/ELLY_DPOL_ExpIII_anova_log_reductions_between_methods.xlsx
+++ b/output_data/ELLY_DPOL_ExpIII_anova_log_reductions_between_methods.xlsx
@@ -466,10 +466,10 @@
         <v>10.9845882315964</v>
       </c>
       <c r="E3" t="n">
-        <v>99.7285668192139</v>
+        <v>99.7285668192138</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000000749406292062068</v>
+        <v>0.000000749406292062073</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
